--- a/data/trans_media/P33_1_2023-Edad-trans_media.xlsx
+++ b/data/trans_media/P33_1_2023-Edad-trans_media.xlsx
@@ -497,7 +497,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según las horas que duerme habitualmente al dia y entre semana</t>
+          <t>Población según las horas que duerme habitualmente al día y entre semana</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,57; 7,88</t>
+          <t>7,55; 7,87</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,39; 7,7</t>
+          <t>7,37; 7,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,53; 7,75</t>
+          <t>7,53; 7,74</t>
         </is>
       </c>
     </row>
@@ -629,12 +629,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,19; 7,41</t>
+          <t>7,17; 7,42</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,15; 7,37</t>
+          <t>7,17; 7,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -679,7 +679,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,02; 7,2</t>
+          <t>7,01; 7,19</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,93; 7,25</t>
+          <t>6,94; 7,26</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,95; 7,13</t>
+          <t>6,95; 7,12</t>
         </is>
       </c>
     </row>
@@ -784,12 +784,12 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,66; 6,82</t>
+          <t>6,66; 6,83</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,81; 6,92</t>
+          <t>6,8; 6,92</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6,89; 7,04</t>
+          <t>6,88; 7,04</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,51; 6,85</t>
+          <t>6,5; 6,86</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>6,63; 6,91</t>
+          <t>6,65; 6,91</t>
         </is>
       </c>
     </row>
@@ -884,12 +884,12 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,87; 7,03</t>
+          <t>6,88; 7,03</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7,0; 7,09</t>
+          <t>6,99; 7,09</t>
         </is>
       </c>
     </row>
